--- a/team_specific_matrix/Detroit Mercy_B.xlsx
+++ b/team_specific_matrix/Detroit Mercy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1555555555555556</v>
+        <v>0.1643356643356643</v>
       </c>
       <c r="C2">
-        <v>0.6577777777777778</v>
+        <v>0.6293706293706294</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02222222222222222</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1155555555555556</v>
+        <v>0.1223776223776224</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04888888888888889</v>
+        <v>0.05594405594405594</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C3">
-        <v>0.01923076923076923</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03846153846153846</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8076923076923077</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1346153846153846</v>
+        <v>0.1223404255319149</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05172413793103448</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7758620689655172</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1724137931034483</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06060606060606061</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0303030303030303</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04848484848484848</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2848484848484849</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01818181818181818</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2060606060606061</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="R6">
-        <v>0.05454545454545454</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="S6">
-        <v>0.296969696969697</v>
+        <v>0.3027522935779817</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.075</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06875000000000001</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06875000000000001</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.14375</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.225</v>
+        <v>0.227979274611399</v>
       </c>
       <c r="R7">
-        <v>0.08749999999999999</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="S7">
-        <v>0.30625</v>
+        <v>0.3160621761658031</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09116022099447514</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01933701657458563</v>
+        <v>0.01978021978021978</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07734806629834254</v>
+        <v>0.06813186813186813</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1325966850828729</v>
+        <v>0.1362637362637363</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02486187845303867</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1629834254143646</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R8">
-        <v>0.07734806629834254</v>
+        <v>0.1032967032967033</v>
       </c>
       <c r="S8">
-        <v>0.4143646408839779</v>
+        <v>0.3868131868131868</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08661417322834646</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02362204724409449</v>
+        <v>0.01875</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09448818897637795</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1496062992125984</v>
+        <v>0.14375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02362204724409449</v>
+        <v>0.01875</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2677165354330709</v>
+        <v>0.26875</v>
       </c>
       <c r="R9">
-        <v>0.03937007874015748</v>
+        <v>0.05625</v>
       </c>
       <c r="S9">
-        <v>0.3149606299212598</v>
+        <v>0.31875</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1074977416440831</v>
+        <v>0.1064880112834979</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02890695573622403</v>
+        <v>0.02538787023977433</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05781391147244806</v>
+        <v>0.06346967559943582</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1237579042457091</v>
+        <v>0.1248236953455571</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009033423667570008</v>
+        <v>0.01057827926657264</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2285456187895212</v>
+        <v>0.2228490832157969</v>
       </c>
       <c r="R10">
-        <v>0.0975609756097561</v>
+        <v>0.09873060648801128</v>
       </c>
       <c r="S10">
-        <v>0.3468834688346883</v>
+        <v>0.347672778561354</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.146551724137931</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09051724137931035</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="K11">
-        <v>0.2068965517241379</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L11">
-        <v>0.5474137931034483</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008620689655172414</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7709923664122137</v>
+        <v>0.7453416149068323</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1450381679389313</v>
+        <v>0.1677018633540373</v>
       </c>
       <c r="K12">
-        <v>0.007633587786259542</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0.04580152671755725</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03053435114503817</v>
+        <v>0.03105590062111801</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7567567567567568</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2162162162162162</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02590673575129534</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1606217616580311</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="I15">
-        <v>0.04663212435233161</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="J15">
-        <v>0.4300518134715026</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="K15">
-        <v>0.05699481865284974</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005181347150259068</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05181347150259067</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2227979274611399</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03243243243243243</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1945945945945946</v>
+        <v>0.1945701357466063</v>
       </c>
       <c r="I16">
-        <v>0.05405405405405406</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J16">
-        <v>0.4270270270270271</v>
+        <v>0.4434389140271493</v>
       </c>
       <c r="K16">
-        <v>0.0972972972972973</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02162162162162162</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="N16">
-        <v>0.005405405405405406</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="O16">
-        <v>0.06486486486486487</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1027027027027027</v>
+        <v>0.08597285067873303</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01445783132530121</v>
+        <v>0.01529636711281071</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1807228915662651</v>
+        <v>0.1778202676864245</v>
       </c>
       <c r="I17">
-        <v>0.07469879518072289</v>
+        <v>0.08030592734225621</v>
       </c>
       <c r="J17">
-        <v>0.4506024096385542</v>
+        <v>0.4416826003824092</v>
       </c>
       <c r="K17">
-        <v>0.1012048192771084</v>
+        <v>0.0994263862332696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01445783132530121</v>
+        <v>0.01720841300191205</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05783132530120482</v>
+        <v>0.05927342256214149</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1060240963855422</v>
+        <v>0.1089866156787763</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01875</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.2035398230088496</v>
       </c>
       <c r="I18">
-        <v>0.075</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="J18">
-        <v>0.48125</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0125</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.07964601769911504</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008556149732620321</v>
+        <v>0.01284246575342466</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2010695187165775</v>
+        <v>0.2020547945205479</v>
       </c>
       <c r="I19">
-        <v>0.06737967914438503</v>
+        <v>0.06335616438356165</v>
       </c>
       <c r="J19">
-        <v>0.3871657754010695</v>
+        <v>0.3938356164383562</v>
       </c>
       <c r="K19">
-        <v>0.1016042780748663</v>
+        <v>0.0976027397260274</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02887700534759358</v>
+        <v>0.02568493150684931</v>
       </c>
       <c r="N19">
-        <v>0.00213903743315508</v>
+        <v>0.001712328767123288</v>
       </c>
       <c r="O19">
-        <v>0.0877005347593583</v>
+        <v>0.08732876712328767</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1155080213903743</v>
+        <v>0.1155821917808219</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Detroit Mercy_B.xlsx
+++ b/team_specific_matrix/Detroit Mercy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1643356643356643</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C2">
-        <v>0.6293706293706294</v>
+        <v>0.6254295532646048</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02797202797202797</v>
+        <v>0.0274914089347079</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1223776223776224</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05594405594405594</v>
+        <v>0.0584192439862543</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005319148936170213</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C3">
-        <v>0.01595744680851064</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04787234042553191</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8085106382978723</v>
+        <v>0.8052631578947368</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1223404255319149</v>
+        <v>0.1263157894736842</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7727272727272727</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.2028985507246377</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04587155963302753</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02752293577981652</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05045871559633028</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2752293577981652</v>
+        <v>0.2775330396475771</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01834862385321101</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1926605504587156</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="R6">
-        <v>0.0871559633027523</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="S6">
-        <v>0.3027522935779817</v>
+        <v>0.2995594713656388</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07253886010362694</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06217616580310881</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07253886010362694</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1450777202072539</v>
+        <v>0.1472081218274112</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02590673575129534</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.227979274611399</v>
+        <v>0.2284263959390863</v>
       </c>
       <c r="R7">
-        <v>0.07772020725388601</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="S7">
-        <v>0.3160621761658031</v>
+        <v>0.3147208121827411</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09230769230769231</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01978021978021978</v>
+        <v>0.02345415778251599</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06813186813186813</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1362637362637363</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02197802197802198</v>
+        <v>0.02345415778251599</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1714285714285714</v>
+        <v>0.1684434968017058</v>
       </c>
       <c r="R8">
-        <v>0.1032967032967033</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="S8">
-        <v>0.3868131868131868</v>
+        <v>0.3816631130063966</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08749999999999999</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01875</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08749999999999999</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.14375</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01875</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.26875</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.05625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S9">
-        <v>0.31875</v>
+        <v>0.3272727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1064880112834979</v>
+        <v>0.1053704962610469</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02538787023977433</v>
+        <v>0.02515295717199184</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06346967559943582</v>
+        <v>0.06254248810333107</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1248236953455571</v>
+        <v>0.1250849762066621</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01057827926657264</v>
+        <v>0.01155676410605031</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2228490832157969</v>
+        <v>0.2195785180149558</v>
       </c>
       <c r="R10">
-        <v>0.09873060648801128</v>
+        <v>0.09925220938137322</v>
       </c>
       <c r="S10">
-        <v>0.347672778561354</v>
+        <v>0.3514615907545887</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1473684210526316</v>
+        <v>0.1453287197231834</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08771929824561403</v>
+        <v>0.08996539792387544</v>
       </c>
       <c r="K11">
-        <v>0.2105263157894737</v>
+        <v>0.2110726643598616</v>
       </c>
       <c r="L11">
-        <v>0.543859649122807</v>
+        <v>0.5432525951557093</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01052631578947368</v>
+        <v>0.01038062283737024</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7453416149068323</v>
+        <v>0.7423312883435583</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1677018633540373</v>
+        <v>0.1717791411042945</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="L12">
-        <v>0.04968944099378882</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03105590062111801</v>
+        <v>0.03067484662576687</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7391304347826086</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2391304347826087</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02049180327868852</v>
+        <v>0.01968503937007874</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1639344262295082</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="I15">
-        <v>0.05737704918032787</v>
+        <v>0.05905511811023622</v>
       </c>
       <c r="J15">
-        <v>0.4262295081967213</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="K15">
-        <v>0.05327868852459016</v>
+        <v>0.05118110236220472</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00819672131147541</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05737704918032787</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2131147540983606</v>
+        <v>0.2165354330708661</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03167420814479638</v>
+        <v>0.03125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1945701357466063</v>
+        <v>0.1919642857142857</v>
       </c>
       <c r="I16">
-        <v>0.05882352941176471</v>
+        <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.4434389140271493</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="K16">
-        <v>0.09502262443438914</v>
+        <v>0.09375</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02714932126696833</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="N16">
-        <v>0.004524886877828055</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="O16">
-        <v>0.05882352941176471</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08597285067873303</v>
+        <v>0.08482142857142858</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01529636711281071</v>
+        <v>0.0149812734082397</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1778202676864245</v>
+        <v>0.1760299625468165</v>
       </c>
       <c r="I17">
-        <v>0.08030592734225621</v>
+        <v>0.08052434456928839</v>
       </c>
       <c r="J17">
-        <v>0.4416826003824092</v>
+        <v>0.4456928838951311</v>
       </c>
       <c r="K17">
-        <v>0.0994263862332696</v>
+        <v>0.09925093632958802</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01720841300191205</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05927342256214149</v>
+        <v>0.05805243445692884</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1089866156787763</v>
+        <v>0.1086142322097378</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01769911504424779</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2035398230088496</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="I18">
-        <v>0.06637168141592921</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="J18">
-        <v>0.4867256637168141</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="K18">
-        <v>0.07964601769911504</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008849557522123894</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05752212389380531</v>
+        <v>0.0546218487394958</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07964601769911504</v>
+        <v>0.08403361344537816</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01284246575342466</v>
+        <v>0.01313628899835796</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2020547945205479</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="I19">
-        <v>0.06335616438356165</v>
+        <v>0.06157635467980296</v>
       </c>
       <c r="J19">
-        <v>0.3938356164383562</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="K19">
-        <v>0.0976027397260274</v>
+        <v>0.09441707717569786</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02568493150684931</v>
+        <v>0.0270935960591133</v>
       </c>
       <c r="N19">
-        <v>0.001712328767123288</v>
+        <v>0.001642036124794745</v>
       </c>
       <c r="O19">
-        <v>0.08732876712328767</v>
+        <v>0.08702791461412152</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1155821917808219</v>
+        <v>0.1174055829228243</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Detroit Mercy_B.xlsx
+++ b/team_specific_matrix/Detroit Mercy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1649484536082474</v>
+        <v>0.1633333333333333</v>
       </c>
       <c r="C2">
-        <v>0.6254295532646048</v>
+        <v>0.63</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0274914089347079</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1237113402061856</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0584192439862543</v>
+        <v>0.05666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005263157894736842</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="C3">
-        <v>0.01578947368421053</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04736842105263158</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8052631578947368</v>
+        <v>0.8071065989847716</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1263157894736842</v>
+        <v>0.1269035532994924</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7536231884057971</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2028985507246377</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04405286343612335</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02643171806167401</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05286343612334802</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2775330396475771</v>
+        <v>0.2796610169491525</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01762114537444934</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1894273127753304</v>
+        <v>0.1991525423728814</v>
       </c>
       <c r="R6">
-        <v>0.09251101321585903</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="S6">
-        <v>0.2995594713656388</v>
+        <v>0.2923728813559322</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07106598984771574</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06091370558375635</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07106598984771574</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1472081218274112</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02538071065989848</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2284263959390863</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="R7">
-        <v>0.08121827411167512</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="S7">
-        <v>0.3147208121827411</v>
+        <v>0.325242718446602</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08955223880597014</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02345415778251599</v>
+        <v>0.02282157676348548</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07462686567164178</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1343283582089552</v>
+        <v>0.1327800829875519</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02345415778251599</v>
+        <v>0.02282157676348548</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1684434968017058</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="R8">
-        <v>0.1044776119402985</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="S8">
-        <v>0.3816631130063966</v>
+        <v>0.3817427385892116</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08484848484848485</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01818181818181818</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="F9">
-        <v>0.08484848484848485</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1393939393939394</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2666666666666667</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="R9">
-        <v>0.06060606060606061</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="S9">
-        <v>0.3272727272727273</v>
+        <v>0.3160919540229885</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1053704962610469</v>
+        <v>0.1069057104913679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02515295717199184</v>
+        <v>0.02523240371845949</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06254248810333107</v>
+        <v>0.06175298804780877</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1250849762066621</v>
+        <v>0.1248339973439575</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01155676410605031</v>
+        <v>0.01128818061088977</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2195785180149558</v>
+        <v>0.2177954847277556</v>
       </c>
       <c r="R10">
-        <v>0.09925220938137322</v>
+        <v>0.100265604249668</v>
       </c>
       <c r="S10">
-        <v>0.3514615907545887</v>
+        <v>0.351925630810093</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1453287197231834</v>
+        <v>0.1438127090301003</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08996539792387544</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K11">
-        <v>0.2110726643598616</v>
+        <v>0.2073578595317726</v>
       </c>
       <c r="L11">
-        <v>0.5432525951557093</v>
+        <v>0.5518394648829431</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01038062283737024</v>
+        <v>0.01003344481605351</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7423312883435583</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1717791411042945</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="K12">
-        <v>0.006134969325153374</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L12">
-        <v>0.049079754601227</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03067484662576687</v>
+        <v>0.02923976608187134</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01968503937007874</v>
+        <v>0.01901140684410646</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1574803149606299</v>
+        <v>0.1596958174904943</v>
       </c>
       <c r="I15">
-        <v>0.05905511811023622</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="J15">
-        <v>0.4251968503937008</v>
+        <v>0.4258555133079848</v>
       </c>
       <c r="K15">
-        <v>0.05118110236220472</v>
+        <v>0.0532319391634981</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007874015748031496</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06299212598425197</v>
+        <v>0.06083650190114068</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2165354330708661</v>
+        <v>0.2167300380228137</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03125</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1919642857142857</v>
+        <v>0.1939655172413793</v>
       </c>
       <c r="I16">
-        <v>0.0625</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="J16">
-        <v>0.4464285714285715</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="K16">
-        <v>0.09375</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02678571428571428</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="N16">
-        <v>0.004464285714285714</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="O16">
-        <v>0.05803571428571429</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08482142857142858</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0149812734082397</v>
+        <v>0.01642335766423358</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1760299625468165</v>
+        <v>0.1751824817518248</v>
       </c>
       <c r="I17">
-        <v>0.08052434456928839</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="J17">
-        <v>0.4456928838951311</v>
+        <v>0.4416058394160584</v>
       </c>
       <c r="K17">
-        <v>0.09925093632958802</v>
+        <v>0.1003649635036496</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01685393258426966</v>
+        <v>0.01642335766423358</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05805243445692884</v>
+        <v>0.06386861313868614</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1086142322097378</v>
+        <v>0.1058394160583942</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01680672268907563</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2100840336134454</v>
+        <v>0.2122448979591837</v>
       </c>
       <c r="I18">
-        <v>0.06722689075630252</v>
+        <v>0.07755102040816327</v>
       </c>
       <c r="J18">
-        <v>0.4789915966386555</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="K18">
-        <v>0.07983193277310924</v>
+        <v>0.07755102040816327</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008403361344537815</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0546218487394958</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08403361344537816</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01313628899835796</v>
+        <v>0.01278976818545164</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2011494252873563</v>
+        <v>0.1998401278976819</v>
       </c>
       <c r="I19">
-        <v>0.06157635467980296</v>
+        <v>0.06314948041566747</v>
       </c>
       <c r="J19">
-        <v>0.396551724137931</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="K19">
-        <v>0.09441707717569786</v>
+        <v>0.09672262190247802</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0270935960591133</v>
+        <v>0.026378896882494</v>
       </c>
       <c r="N19">
-        <v>0.001642036124794745</v>
+        <v>0.001598721023181455</v>
       </c>
       <c r="O19">
-        <v>0.08702791461412152</v>
+        <v>0.08713029576338929</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1174055829228243</v>
+        <v>0.1167066346922462</v>
       </c>
     </row>
   </sheetData>
